--- a/Rating (vicky).xlsx
+++ b/Rating (vicky).xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KENNY\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KENNY\source\repos\VickyAmazonWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="11"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="BPPC024-010" sheetId="1" r:id="rId1"/>
@@ -28,22 +28,7 @@
     <sheet name="工作表14" sheetId="14" r:id="rId14"/>
     <sheet name="工作表15" sheetId="15" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -56,58 +41,46 @@
     <t>RATING</t>
   </si>
   <si>
+    <t>BPPC024-010</t>
+  </si>
+  <si>
     <t>Total Rating</t>
   </si>
   <si>
     <t>Average Rating</t>
   </si>
   <si>
-    <t>BPPC024-010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BPPC024-003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>BPPC176-001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>BABC042-001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>BPPC024-005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>BPPC176-004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>HKBA075-002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>BABC042-002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>BPPC024-007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>HKBA075-009</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>BPPC024-025-S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>HKKD362-002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -118,17 +91,10 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
@@ -157,30 +123,35 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -216,13 +187,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="圖片 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD8A676A-0325-DDE2-723A-E9AE25FA4D4C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="5" name="圖片 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -241,6 +206,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -265,25 +233,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="圖片 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{415F3398-3AAA-ED3C-2A45-83F45FE8448D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="圖片 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -296,6 +252,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -320,25 +279,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="圖片 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02609DF5-C5A5-2A14-C7B1-7D4A45FEEBD6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="圖片 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -351,6 +298,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -375,25 +325,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="圖片 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C756B9B0-F3CF-E081-0A40-543C8DDDAA7C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="5" name="圖片 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -406,6 +344,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -430,25 +371,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="圖片 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6C3E733-617E-4275-96C1-AC70EA281BAA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="圖片 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -461,6 +390,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -485,25 +417,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="圖片 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{166B3280-104D-48F1-9D76-C54074732984}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="圖片 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -516,6 +436,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -540,25 +463,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="圖片 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{623E7005-9BD1-4934-8BBE-6761704E557C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="圖片 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -571,6 +482,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -595,25 +509,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="圖片 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3229EFAE-E221-4C2F-AD74-CF16864A6E8D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="圖片 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -628,15 +530,9 @@
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -661,25 +557,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="圖片 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFCC9C53-6AD4-4125-988E-6151DE1D8321}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="圖片 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -692,6 +576,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -711,13 +598,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="圖片 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40705B0E-4215-4C99-B6AA-7742F0B3957D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="圖片 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -736,6 +617,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -760,25 +644,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="圖片 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{078D83D6-153A-42EC-8182-4F8447BC9A1B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="圖片 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -791,6 +663,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -815,25 +690,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="圖片 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27E5DFD0-0052-5712-D515-D87AE10EBCE8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="圖片 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -846,6 +709,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -870,25 +736,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="圖片 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21EF5328-B42E-4069-973A-2DF69E1C6781}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="圖片 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -901,6 +755,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1207,199 +1064,200 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="14.625" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="13.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="16" width="9.375" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="2">
         <v>44750</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="2">
         <v>44751</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="2">
         <v>44752</v>
       </c>
-      <c r="F1" s="3">
+      <c r="F1" s="2">
         <v>44753</v>
       </c>
-      <c r="G1" s="3">
+      <c r="G1" s="2">
         <v>44754</v>
       </c>
-      <c r="H1" s="3">
+      <c r="H1" s="2">
         <v>44755</v>
       </c>
-      <c r="I1" s="3">
+      <c r="I1" s="2">
         <v>44756</v>
       </c>
-      <c r="J1" s="3">
+      <c r="J1" s="2">
         <v>44757</v>
       </c>
-      <c r="K1" s="3">
+      <c r="K1" s="2">
         <v>44758</v>
       </c>
-      <c r="L1" s="3">
+      <c r="L1" s="2">
         <v>44759</v>
       </c>
-      <c r="M1" s="3">
+      <c r="M1" s="2">
         <v>44760</v>
       </c>
-      <c r="N1" s="3">
+      <c r="N1" s="2">
         <v>44761</v>
       </c>
-      <c r="O1" s="3">
+      <c r="O1" s="2">
         <v>44762</v>
       </c>
-      <c r="P1" s="3">
+      <c r="P1" s="2">
         <v>44763</v>
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7">
+        <v>204</v>
+      </c>
+      <c r="D2" s="7">
+        <v>204</v>
+      </c>
+      <c r="E2" s="7">
+        <v>204</v>
+      </c>
+      <c r="F2" s="7">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="9"/>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7">
+        <v>167</v>
+      </c>
+      <c r="D3" s="7">
+        <v>167</v>
+      </c>
+      <c r="E3" s="7">
+        <v>167</v>
+      </c>
+      <c r="F3" s="7">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="9"/>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="7">
+        <v>424</v>
+      </c>
+      <c r="D4" s="7">
+        <v>423</v>
+      </c>
+      <c r="E4" s="7">
+        <v>423</v>
+      </c>
+      <c r="F4" s="7">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="9"/>
+      <c r="B5" s="1">
         <v>4</v>
       </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>204</v>
-      </c>
-      <c r="D2" s="1">
-        <v>204</v>
-      </c>
-      <c r="E2" s="1">
-        <v>204</v>
-      </c>
-      <c r="F2" s="1">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="7"/>
-      <c r="B3" s="2">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>167</v>
-      </c>
-      <c r="D3" s="1">
-        <v>167</v>
-      </c>
-      <c r="E3" s="1">
-        <v>167</v>
-      </c>
-      <c r="F3" s="1">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2">
+      <c r="C5" s="7">
+        <v>824</v>
+      </c>
+      <c r="D5" s="7">
+        <v>825</v>
+      </c>
+      <c r="E5" s="7">
+        <v>825</v>
+      </c>
+      <c r="F5" s="7">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="9"/>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="7">
+        <v>3890</v>
+      </c>
+      <c r="D6" s="7">
+        <v>3892</v>
+      </c>
+      <c r="E6" s="7">
+        <v>3902</v>
+      </c>
+      <c r="F6" s="7">
+        <v>3902</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="9"/>
+      <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1">
-        <v>424</v>
-      </c>
-      <c r="D4" s="1">
-        <v>423</v>
-      </c>
-      <c r="E4" s="1">
-        <v>423</v>
-      </c>
-      <c r="F4" s="1">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="7"/>
-      <c r="B5" s="2">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1">
-        <v>824</v>
-      </c>
-      <c r="D5" s="1">
-        <v>825</v>
-      </c>
-      <c r="E5" s="1">
-        <v>825</v>
-      </c>
-      <c r="F5" s="1">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="7"/>
-      <c r="B6" s="2">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1">
-        <v>3890</v>
-      </c>
-      <c r="D6" s="1">
-        <v>3892</v>
-      </c>
-      <c r="E6">
-        <v>3902</v>
-      </c>
-      <c r="F6" s="1">
-        <v>3902</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="7"/>
-      <c r="B7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <f>SUM(C2:C6)</f>
         <v>5509</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <f>SUM(D2:D6)</f>
         <v>5511</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <f>SUM(E2:E6)</f>
         <v>5521</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <f>SUM(F2:F6)</f>
         <v>5521</v>
       </c>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="7"/>
-      <c r="B8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="4">
+      <c r="A8" s="9"/>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3">
         <f>SUMPRODUCT($B$2:$B$6,C2:C6)/SUM(C2:C6)</f>
         <v>4.4574332909783987</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <f>SUMPRODUCT($B$2:$B$6,D2:D6)/SUM(D2:D6)</f>
         <v>4.4578116494284155</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <f>SUMPRODUCT($B$2:$B$6,E2:E6)/SUM(E2:E6)</f>
         <v>4.4587936967940589</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <f>SUMPRODUCT($B$2:$B$6,F2:F6)/SUM(F2:F6)</f>
         <v>4.4587936967940589</v>
       </c>
@@ -1408,7 +1266,6 @@
   <mergeCells count="1">
     <mergeCell ref="A2:A8"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1424,261 +1281,260 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="1" max="1" width="15" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="2">
         <v>44750</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="2">
         <v>44751</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="2">
         <v>44752</v>
       </c>
-      <c r="F1" s="3">
+      <c r="F1" s="2">
         <v>44753</v>
       </c>
-      <c r="G1" s="3">
+      <c r="G1" s="2">
         <v>44754</v>
       </c>
-      <c r="H1" s="3">
+      <c r="H1" s="2">
         <v>44755</v>
       </c>
-      <c r="I1" s="3">
+      <c r="I1" s="2">
         <v>44756</v>
       </c>
-      <c r="J1" s="3">
+      <c r="J1" s="2">
         <v>44757</v>
       </c>
-      <c r="K1" s="3">
+      <c r="K1" s="2">
         <v>44758</v>
       </c>
-      <c r="L1" s="3">
+      <c r="L1" s="2">
         <v>44759</v>
       </c>
-      <c r="M1" s="3">
+      <c r="M1" s="2">
         <v>44760</v>
       </c>
-      <c r="N1" s="3">
+      <c r="N1" s="2">
         <v>44761</v>
       </c>
-      <c r="O1" s="3">
+      <c r="O1" s="2">
         <v>44762</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="7">
         <v>1</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="7">
         <v>1</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="7">
         <v>1</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="7">
         <v>1</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="7"/>
-      <c r="B3" s="2">
+      <c r="A3" s="9"/>
+      <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="7">
         <v>1</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="7">
         <v>1</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="7">
         <v>1</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="7">
         <v>1</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2">
+      <c r="A4" s="9"/>
+      <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="7">
         <v>11</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="7">
         <v>11</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="7">
         <v>11</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="7">
         <v>11</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="7"/>
-      <c r="B5" s="2">
+      <c r="A5" s="9"/>
+      <c r="B5" s="1">
         <v>4</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="7">
         <v>27</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="7">
         <v>27</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="7">
         <v>28</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="7">
         <v>28</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="7"/>
-      <c r="B6" s="2">
+      <c r="A6" s="9"/>
+      <c r="B6" s="1">
         <v>5</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="7">
         <v>126</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="7">
         <v>126</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="7">
         <v>128</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="7">
         <v>128</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="7"/>
-      <c r="B7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="6">
+      <c r="A7" s="9"/>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5">
         <f>SUM(C2:C6)</f>
         <v>166</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <f>SUM(D2:D6)</f>
         <v>166</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <f>SUM(E2:E6)</f>
         <v>169</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <f>SUM(F2:F6)</f>
         <v>169</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="7"/>
-      <c r="B8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="4">
+      <c r="A8" s="9"/>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3">
         <f>SUMPRODUCT(C2:C6,$B$2:$B$6)/SUM(C2:C6)</f>
         <v>4.6626506024096388</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <f>SUMPRODUCT(D2:D6,$B$2:$B$6)/SUM(D2:D6)</f>
         <v>4.6626506024096388</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <f>SUMPRODUCT(E2:E6,$B$2:$B$6)/SUM(E2:E6)</f>
         <v>4.6627218934911241</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <f>SUMPRODUCT(F2:F6,$B$2:$B$6)/SUM(F2:F6)</f>
         <v>4.6627218934911241</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:A8"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1694,245 +1550,244 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="21.125" customWidth="1"/>
-    <col min="2" max="2" width="15.75" customWidth="1"/>
+    <col min="1" max="1" width="21.125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="15.75" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="2">
         <v>44750</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="2">
         <v>44751</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="2">
         <v>44752</v>
       </c>
-      <c r="F1" s="3">
+      <c r="F1" s="2">
         <v>44753</v>
       </c>
-      <c r="G1" s="3">
+      <c r="G1" s="2">
         <v>44754</v>
       </c>
-      <c r="H1" s="3">
+      <c r="H1" s="2">
         <v>44755</v>
       </c>
-      <c r="I1" s="3">
+      <c r="I1" s="2">
         <v>44756</v>
       </c>
-      <c r="J1" s="3">
+      <c r="J1" s="2">
         <v>44757</v>
       </c>
-      <c r="K1" s="3">
+      <c r="K1" s="2">
         <v>44758</v>
       </c>
-      <c r="L1" s="3">
+      <c r="L1" s="2">
         <v>44759</v>
       </c>
-      <c r="M1" s="3">
+      <c r="M1" s="2">
         <v>44760</v>
       </c>
-      <c r="N1" s="3">
+      <c r="N1" s="2">
         <v>44761</v>
       </c>
-      <c r="O1" s="3">
+      <c r="O1" s="2">
         <v>44762</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="7">
         <v>50</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="7">
         <v>50</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="7">
         <v>51</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="7"/>
-      <c r="B3" s="2">
+      <c r="A3" s="9"/>
+      <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="7">
         <v>63</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="7">
         <v>63</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="7">
         <v>63</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2">
+      <c r="A4" s="9"/>
+      <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="7">
         <v>118</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="7">
         <v>118</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="7">
         <v>119</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="7"/>
-      <c r="B5" s="2">
+      <c r="A5" s="9"/>
+      <c r="B5" s="1">
         <v>4</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="7">
         <v>155</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="7">
         <v>155</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="7">
         <v>155</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="7"/>
-      <c r="B6" s="2">
+      <c r="A6" s="9"/>
+      <c r="B6" s="1">
         <v>5</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="7">
         <v>541</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="7">
         <v>541</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="7">
         <v>544</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="7"/>
-      <c r="B7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="6">
+      <c r="A7" s="9"/>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5">
         <f>SUM(C2:C6)</f>
         <v>927</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <f>SUM(D2:D6)</f>
         <v>927</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <f>SUM(E2:E6)</f>
         <v>932</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="7"/>
-      <c r="B8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="4">
+      <c r="A8" s="9"/>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3">
         <f>SUMPRODUCT(C2:C6,$B$2:$B$6)/SUM(C2:C6)</f>
         <v>4.1585760517799351</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <f>SUMPRODUCT(D2:D6,$B$2:$B$6)/SUM(D2:D6)</f>
         <v>4.1585760517799351</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <f>SUMPRODUCT(E2:E6,$B$2:$B$6)/SUM(E2:E6)</f>
         <v>4.1566523605150216</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:A8"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1942,231 +1797,230 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="20.875" customWidth="1"/>
-    <col min="2" max="2" width="14.125" customWidth="1"/>
-    <col min="5" max="5" width="20.125" customWidth="1"/>
+    <col min="1" max="1" width="20.875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="20.125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="2">
         <v>44751</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="2">
         <v>44752</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="2">
         <v>44753</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="7">
         <v>18</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="7">
         <v>18</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="7">
         <v>18</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="7"/>
-      <c r="B3" s="2">
+      <c r="A3" s="9"/>
+      <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="7">
         <v>20</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="7">
         <v>20</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="7">
         <v>20</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2">
+      <c r="A4" s="9"/>
+      <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="7">
         <v>60</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="7">
         <v>60</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="7">
         <v>60</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="7"/>
-      <c r="B5" s="2">
+      <c r="A5" s="9"/>
+      <c r="B5" s="1">
         <v>4</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="7">
         <v>145</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="7">
         <v>145</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="7">
         <v>145</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="7"/>
-      <c r="B6" s="2">
+      <c r="A6" s="9"/>
+      <c r="B6" s="1">
         <v>5</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="7">
         <v>939</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="7">
         <v>941</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="7">
         <v>941</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="7"/>
-      <c r="B7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="6">
+      <c r="A7" s="9"/>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5">
         <f>SUM(C2:C6)</f>
         <v>1182</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <f>SUM(D2:D6)</f>
         <v>1184</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <f>SUM(E2:E6)</f>
         <v>1184</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="7"/>
-      <c r="B8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="4">
+      <c r="A8" s="9"/>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3">
         <f>SUMPRODUCT(C2:C6,$B$2:$B$6)/SUM(C2:C6)</f>
         <v>4.6641285956006771</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <f>SUMPRODUCT(D2:D6,$B$2:$B$6)/SUM(D2:D6)</f>
         <v>4.6646959459459456</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <f>SUMPRODUCT(E2:E6,$B$2:$B$6)/SUM(E2:E6)</f>
         <v>4.6646959459459456</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:A8"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2183,190 +2037,189 @@
   <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="2">
         <v>44750</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="2">
         <v>44751</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="2">
         <v>44752</v>
       </c>
-      <c r="F1" s="3">
+      <c r="F1" s="2">
         <v>44753</v>
       </c>
-      <c r="G1" s="3">
+      <c r="G1" s="2">
         <v>44754</v>
       </c>
-      <c r="H1" s="3">
+      <c r="H1" s="2">
         <v>44755</v>
       </c>
-      <c r="I1" s="3">
+      <c r="I1" s="2">
         <v>44756</v>
       </c>
-      <c r="J1" s="3">
+      <c r="J1" s="2">
         <v>44757</v>
       </c>
-      <c r="K1" s="3">
+      <c r="K1" s="2">
         <v>44758</v>
       </c>
-      <c r="L1" s="3">
+      <c r="L1" s="2">
         <v>44759</v>
       </c>
-      <c r="M1" s="3">
+      <c r="M1" s="2">
         <v>44760</v>
       </c>
-      <c r="N1" s="3">
+      <c r="N1" s="2">
         <v>44761</v>
       </c>
-      <c r="O1" s="3">
+      <c r="O1" s="2">
         <v>44762</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="7"/>
-      <c r="B2" s="2">
+      <c r="A2" s="8"/>
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="7"/>
-      <c r="B3" s="2">
+      <c r="A3" s="10"/>
+      <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2">
+      <c r="A4" s="10"/>
+      <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="7"/>
-      <c r="B5" s="2">
+      <c r="A5" s="10"/>
+      <c r="B5" s="1">
         <v>4</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="7"/>
-      <c r="B6" s="2">
+      <c r="A6" s="10"/>
+      <c r="B6" s="1">
         <v>5</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="7"/>
-      <c r="B7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="7"/>
-      <c r="B8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:A8"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2382,190 +2235,189 @@
   <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="2">
         <v>44750</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="2">
         <v>44751</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="2">
         <v>44752</v>
       </c>
-      <c r="F1" s="3">
+      <c r="F1" s="2">
         <v>44753</v>
       </c>
-      <c r="G1" s="3">
+      <c r="G1" s="2">
         <v>44754</v>
       </c>
-      <c r="H1" s="3">
+      <c r="H1" s="2">
         <v>44755</v>
       </c>
-      <c r="I1" s="3">
+      <c r="I1" s="2">
         <v>44756</v>
       </c>
-      <c r="J1" s="3">
+      <c r="J1" s="2">
         <v>44757</v>
       </c>
-      <c r="K1" s="3">
+      <c r="K1" s="2">
         <v>44758</v>
       </c>
-      <c r="L1" s="3">
+      <c r="L1" s="2">
         <v>44759</v>
       </c>
-      <c r="M1" s="3">
+      <c r="M1" s="2">
         <v>44760</v>
       </c>
-      <c r="N1" s="3">
+      <c r="N1" s="2">
         <v>44761</v>
       </c>
-      <c r="O1" s="3">
+      <c r="O1" s="2">
         <v>44762</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="7"/>
-      <c r="B2" s="2">
+      <c r="A2" s="8"/>
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="7"/>
-      <c r="B3" s="2">
+      <c r="A3" s="10"/>
+      <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2">
+      <c r="A4" s="10"/>
+      <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="7"/>
-      <c r="B5" s="2">
+      <c r="A5" s="10"/>
+      <c r="B5" s="1">
         <v>4</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="7"/>
-      <c r="B6" s="2">
+      <c r="A6" s="10"/>
+      <c r="B6" s="1">
         <v>5</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="7"/>
-      <c r="B7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="7"/>
-      <c r="B8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:A8"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2581,190 +2433,189 @@
   <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="2">
         <v>44750</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="2">
         <v>44751</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="2">
         <v>44752</v>
       </c>
-      <c r="F1" s="3">
+      <c r="F1" s="2">
         <v>44753</v>
       </c>
-      <c r="G1" s="3">
+      <c r="G1" s="2">
         <v>44754</v>
       </c>
-      <c r="H1" s="3">
+      <c r="H1" s="2">
         <v>44755</v>
       </c>
-      <c r="I1" s="3">
+      <c r="I1" s="2">
         <v>44756</v>
       </c>
-      <c r="J1" s="3">
+      <c r="J1" s="2">
         <v>44757</v>
       </c>
-      <c r="K1" s="3">
+      <c r="K1" s="2">
         <v>44758</v>
       </c>
-      <c r="L1" s="3">
+      <c r="L1" s="2">
         <v>44759</v>
       </c>
-      <c r="M1" s="3">
+      <c r="M1" s="2">
         <v>44760</v>
       </c>
-      <c r="N1" s="3">
+      <c r="N1" s="2">
         <v>44761</v>
       </c>
-      <c r="O1" s="3">
+      <c r="O1" s="2">
         <v>44762</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="7"/>
-      <c r="B2" s="2">
+      <c r="A2" s="8"/>
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="7"/>
-      <c r="B3" s="2">
+      <c r="A3" s="10"/>
+      <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2">
+      <c r="A4" s="10"/>
+      <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="7"/>
-      <c r="B5" s="2">
+      <c r="A5" s="10"/>
+      <c r="B5" s="1">
         <v>4</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="7"/>
-      <c r="B6" s="2">
+      <c r="A6" s="10"/>
+      <c r="B6" s="1">
         <v>5</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="7"/>
-      <c r="B7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="7"/>
-      <c r="B8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:A8"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2779,260 +2630,259 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="2" width="14.25" customWidth="1"/>
+    <col min="1" max="2" width="14.25" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="2">
         <v>44750</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="2">
         <v>44751</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="2">
         <v>44752</v>
       </c>
-      <c r="F1" s="3">
+      <c r="F1" s="2">
         <v>44753</v>
       </c>
-      <c r="G1" s="3">
+      <c r="G1" s="2">
         <v>44754</v>
       </c>
-      <c r="H1" s="3">
+      <c r="H1" s="2">
         <v>44755</v>
       </c>
-      <c r="I1" s="3">
+      <c r="I1" s="2">
         <v>44756</v>
       </c>
-      <c r="J1" s="3">
+      <c r="J1" s="2">
         <v>44757</v>
       </c>
-      <c r="K1" s="3">
+      <c r="K1" s="2">
         <v>44758</v>
       </c>
-      <c r="L1" s="3">
+      <c r="L1" s="2">
         <v>44759</v>
       </c>
-      <c r="M1" s="3">
+      <c r="M1" s="2">
         <v>44760</v>
       </c>
-      <c r="N1" s="3">
+      <c r="N1" s="2">
         <v>44761</v>
       </c>
-      <c r="O1" s="3">
+      <c r="O1" s="2">
         <v>44762</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="7">
         <v>48</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="7">
         <v>48</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="7">
         <v>48</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="7">
         <v>48</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="7"/>
-      <c r="B3" s="2">
+      <c r="A3" s="9"/>
+      <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="7">
         <v>59</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="7">
         <v>59</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="7">
         <v>59</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="7">
         <v>59</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2">
+      <c r="A4" s="9"/>
+      <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="7">
         <v>172</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="7">
         <v>172</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="7">
         <v>173</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="7">
         <v>173</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="7"/>
-      <c r="B5" s="2">
+      <c r="A5" s="9"/>
+      <c r="B5" s="1">
         <v>4</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="7">
         <v>538</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="7">
         <v>538</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="7">
         <v>540</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="7">
         <v>540</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="7"/>
-      <c r="B6" s="2">
+      <c r="A6" s="9"/>
+      <c r="B6" s="1">
         <v>5</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="7">
         <v>3042</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="7">
         <v>3045</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="7">
         <v>3048</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="7">
         <v>3050</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="7"/>
-      <c r="B7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="6">
+      <c r="A7" s="9"/>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5">
         <f>SUM(C2:C6)</f>
         <v>3859</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <f>SUM(D2:D6)</f>
         <v>3862</v>
       </c>
-      <c r="E7" s="6">
-        <f t="shared" ref="E7:F7" si="0">SUM(E2:E6)</f>
+      <c r="E7" s="5">
+        <f>SUM(E2:E6)</f>
         <v>3868</v>
       </c>
-      <c r="F7" s="6">
-        <f t="shared" si="0"/>
+      <c r="F7" s="5">
+        <f>SUM(F2:F6)</f>
         <v>3870</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="7"/>
-      <c r="B8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="4">
+      <c r="A8" s="9"/>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3">
         <f>SUMPRODUCT(C2:C6,$B$2:$B$6)/SUM(C2:C6)</f>
         <v>4.6758227520082922</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <f>SUMPRODUCT(D2:D6,$B$2:$B$6)/SUM(D2:D6)</f>
         <v>4.6760745727602275</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <f>SUMPRODUCT(E2:E6,$B$2:$B$6)/SUM(E2:E6)</f>
         <v>4.6755429162357807</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <f>SUMPRODUCT(F2:F6,$B$2:$B$6)/SUM(F2:F6)</f>
         <v>4.6757105943152455</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:A8"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3048,261 +2898,260 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="1" max="1" width="15.5" style="6" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="2">
         <v>44750</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="2">
         <v>44751</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="2">
         <v>44752</v>
       </c>
-      <c r="F1" s="3">
+      <c r="F1" s="2">
         <v>44753</v>
       </c>
-      <c r="G1" s="3">
+      <c r="G1" s="2">
         <v>44754</v>
       </c>
-      <c r="H1" s="3">
+      <c r="H1" s="2">
         <v>44755</v>
       </c>
-      <c r="I1" s="3">
+      <c r="I1" s="2">
         <v>44756</v>
       </c>
-      <c r="J1" s="3">
+      <c r="J1" s="2">
         <v>44757</v>
       </c>
-      <c r="K1" s="3">
+      <c r="K1" s="2">
         <v>44758</v>
       </c>
-      <c r="L1" s="3">
+      <c r="L1" s="2">
         <v>44759</v>
       </c>
-      <c r="M1" s="3">
+      <c r="M1" s="2">
         <v>44760</v>
       </c>
-      <c r="N1" s="3">
+      <c r="N1" s="2">
         <v>44761</v>
       </c>
-      <c r="O1" s="3">
+      <c r="O1" s="2">
         <v>44762</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="7">
         <v>92</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="7">
         <v>93</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="7">
         <v>93</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="7">
         <v>93</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="7"/>
-      <c r="B3" s="2">
+      <c r="A3" s="9"/>
+      <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="7">
         <v>103</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="7">
         <v>103</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="7">
         <v>103</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="7">
         <v>103</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2">
+      <c r="A4" s="9"/>
+      <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="7">
         <v>325</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="7">
         <v>325</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="7">
         <v>325</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="7">
         <v>325</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="7"/>
-      <c r="B5" s="2">
+      <c r="A5" s="9"/>
+      <c r="B5" s="1">
         <v>4</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="7">
         <v>820</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="7">
         <v>822</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="7">
         <v>824</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="7">
         <v>824</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="7"/>
-      <c r="B6" s="2">
+      <c r="A6" s="9"/>
+      <c r="B6" s="1">
         <v>5</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="7">
         <v>3713</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="7">
         <v>3714</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="7">
         <v>3717</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="7">
         <v>3719</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="7"/>
-      <c r="B7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="6">
+      <c r="A7" s="9"/>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5">
         <f>SUM(C2:C6)</f>
         <v>5053</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <f>SUM(D2:D6)</f>
         <v>5057</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <f>SUM(E2:E6)</f>
         <v>5062</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <f>SUM(F2:F6)</f>
         <v>5064</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="7"/>
-      <c r="B8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="4">
+      <c r="A8" s="9"/>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3">
         <f>SUMPRODUCT(C2:C6,$B$2:$B$6)/SUM(C2:C6)</f>
         <v>4.5751038986740546</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <f>SUMPRODUCT(D2:D6,$B$2:$B$6)/SUM(D2:D6)</f>
         <v>4.5742535099861579</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <f>SUMPRODUCT(E2:E6,$B$2:$B$6)/SUM(E2:E6)</f>
         <v>4.5742789411299878</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <f>SUMPRODUCT(F2:F6,$B$2:$B$6)/SUM(F2:F6)</f>
         <v>4.5744470774091628</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:A8"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3318,260 +3167,259 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="2" width="12.625" customWidth="1"/>
+    <col min="1" max="2" width="12.625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="2">
         <v>44750</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="2">
         <v>44751</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="2">
         <v>44752</v>
       </c>
-      <c r="F1" s="3">
+      <c r="F1" s="2">
         <v>44753</v>
       </c>
-      <c r="G1" s="3">
+      <c r="G1" s="2">
         <v>44754</v>
       </c>
-      <c r="H1" s="3">
+      <c r="H1" s="2">
         <v>44755</v>
       </c>
-      <c r="I1" s="3">
+      <c r="I1" s="2">
         <v>44756</v>
       </c>
-      <c r="J1" s="3">
+      <c r="J1" s="2">
         <v>44757</v>
       </c>
-      <c r="K1" s="3">
+      <c r="K1" s="2">
         <v>44758</v>
       </c>
-      <c r="L1" s="3">
+      <c r="L1" s="2">
         <v>44759</v>
       </c>
-      <c r="M1" s="3">
+      <c r="M1" s="2">
         <v>44760</v>
       </c>
-      <c r="N1" s="3">
+      <c r="N1" s="2">
         <v>44761</v>
       </c>
-      <c r="O1" s="3">
+      <c r="O1" s="2">
         <v>44762</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="7">
         <v>183</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="7">
         <v>183</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="7">
         <v>184</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="7">
         <v>184</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="7"/>
-      <c r="B3" s="2">
+      <c r="A3" s="9"/>
+      <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="7">
         <v>143</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="7">
         <v>143</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="7">
         <v>143</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="7">
         <v>143</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2">
+      <c r="A4" s="9"/>
+      <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="7">
         <v>293</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="7">
         <v>293</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="7">
         <v>294</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="7">
         <v>294</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="7"/>
-      <c r="B5" s="2">
+      <c r="A5" s="9"/>
+      <c r="B5" s="1">
         <v>4</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="7">
         <v>395</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="7">
         <v>395</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="7">
         <v>396</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="7">
         <v>396</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="7"/>
-      <c r="B6" s="2">
+      <c r="A6" s="9"/>
+      <c r="B6" s="1">
         <v>5</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="7">
         <v>1999</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="7">
         <v>2004</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="7">
         <v>2005</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="7">
         <v>2009</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="7"/>
-      <c r="B7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="6">
+      <c r="A7" s="9"/>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5">
         <f>SUM(C2:C6)</f>
         <v>3013</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <f>SUM(D2:D6)</f>
         <v>3018</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <f>SUM(E2:E6)</f>
         <v>3022</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <f>SUM(F2:F6)</f>
         <v>3026</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="7"/>
-      <c r="B8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="4">
+      <c r="A8" s="9"/>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3">
         <f>SUMPRODUCT(C2:C6,$B$2:$B$6)/SUM(C2:C6)</f>
         <v>4.2890806505144372</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <f>SUMPRODUCT(D2:D6,$B$2:$B$6)/SUM(D2:D6)</f>
         <v>4.2902584493041749</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <f>SUMPRODUCT(E2:E6,$B$2:$B$6)/SUM(E2:E6)</f>
         <v>4.2888815354070156</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <f>SUMPRODUCT(F2:F6,$B$2:$B$6)/SUM(F2:F6)</f>
         <v>4.2898215465961664</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:A8"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3587,261 +3435,260 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="12.75" customWidth="1"/>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="1" max="1" width="12.75" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="2">
         <v>44750</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="2">
         <v>44751</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="2">
         <v>44752</v>
       </c>
-      <c r="F1" s="3">
+      <c r="F1" s="2">
         <v>44753</v>
       </c>
-      <c r="G1" s="3">
+      <c r="G1" s="2">
         <v>44754</v>
       </c>
-      <c r="H1" s="3">
+      <c r="H1" s="2">
         <v>44755</v>
       </c>
-      <c r="I1" s="3">
+      <c r="I1" s="2">
         <v>44756</v>
       </c>
-      <c r="J1" s="3">
+      <c r="J1" s="2">
         <v>44757</v>
       </c>
-      <c r="K1" s="3">
+      <c r="K1" s="2">
         <v>44758</v>
       </c>
-      <c r="L1" s="3">
+      <c r="L1" s="2">
         <v>44759</v>
       </c>
-      <c r="M1" s="3">
+      <c r="M1" s="2">
         <v>44760</v>
       </c>
-      <c r="N1" s="3">
+      <c r="N1" s="2">
         <v>44761</v>
       </c>
-      <c r="O1" s="3">
+      <c r="O1" s="2">
         <v>44762</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="7">
         <v>71</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="7">
         <v>71</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="7">
         <v>71</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="7">
         <v>71</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="7"/>
-      <c r="B3" s="2">
+      <c r="A3" s="9"/>
+      <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="7">
         <v>76</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="7">
         <v>76</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="7">
         <v>76</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="7">
         <v>76</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2">
+      <c r="A4" s="9"/>
+      <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="7">
         <v>162</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="7">
         <v>162</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="7">
         <v>162</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="7">
         <v>163</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="7"/>
-      <c r="B5" s="2">
+      <c r="A5" s="9"/>
+      <c r="B5" s="1">
         <v>4</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="7">
         <v>306</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="7">
         <v>306</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="7">
         <v>307</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="7">
         <v>309</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="7"/>
-      <c r="B6" s="2">
+      <c r="A6" s="9"/>
+      <c r="B6" s="1">
         <v>5</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="7">
         <v>1343</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="7">
         <v>1344</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="7">
         <v>1345</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="7">
         <v>1347</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="7"/>
-      <c r="B7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="6">
+      <c r="A7" s="9"/>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5">
         <f>SUM(C2:C6)</f>
         <v>1958</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <f>SUM(D2:D6)</f>
         <v>1959</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <f>SUM(E2:E6)</f>
         <v>1961</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <f>SUM(F2:F6)</f>
         <v>1966</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="7"/>
-      <c r="B8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="4">
+      <c r="A8" s="9"/>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3">
         <f>SUMPRODUCT(C2:C6,$B$2:$B$6)/SUM(C2:C6)</f>
         <v>4.4167517875383044</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <f>SUMPRODUCT(D2:D6,$B$2:$B$6)/SUM(D2:D6)</f>
         <v>4.4170495150587037</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <f>SUMPRODUCT(E2:E6,$B$2:$B$6)/SUM(E2:E6)</f>
         <v>4.4171341152473227</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <f>SUMPRODUCT(F2:F6,$B$2:$B$6)/SUM(F2:F6)</f>
         <v>4.4165818921668363</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:A8"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3857,245 +3704,244 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="2" width="14.5" customWidth="1"/>
+    <col min="1" max="2" width="14.5" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="2">
         <v>44750</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="2">
         <v>44751</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="2">
         <v>44752</v>
       </c>
-      <c r="F1" s="3">
+      <c r="F1" s="2">
         <v>44753</v>
       </c>
-      <c r="G1" s="3">
+      <c r="G1" s="2">
         <v>44754</v>
       </c>
-      <c r="H1" s="3">
+      <c r="H1" s="2">
         <v>44755</v>
       </c>
-      <c r="I1" s="3">
+      <c r="I1" s="2">
         <v>44756</v>
       </c>
-      <c r="J1" s="3">
+      <c r="J1" s="2">
         <v>44757</v>
       </c>
-      <c r="K1" s="3">
+      <c r="K1" s="2">
         <v>44758</v>
       </c>
-      <c r="L1" s="3">
+      <c r="L1" s="2">
         <v>44759</v>
       </c>
-      <c r="M1" s="3">
+      <c r="M1" s="2">
         <v>44760</v>
       </c>
-      <c r="N1" s="3">
+      <c r="N1" s="2">
         <v>44761</v>
       </c>
-      <c r="O1" s="3">
+      <c r="O1" s="2">
         <v>44762</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="7">
         <v>32</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="7">
         <v>32</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="7"/>
-      <c r="B3" s="2">
+      <c r="A3" s="9"/>
+      <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="7">
         <v>38</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="7">
         <v>38</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2">
+      <c r="A4" s="9"/>
+      <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="7">
         <v>109</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="7">
         <v>109</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="7"/>
-      <c r="B5" s="2">
+      <c r="A5" s="9"/>
+      <c r="B5" s="1">
         <v>4</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="7">
         <v>321</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="7">
         <v>321</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="7"/>
-      <c r="B6" s="2">
+      <c r="A6" s="9"/>
+      <c r="B6" s="1">
         <v>5</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="7">
         <v>1403</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="7">
         <v>1405</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="7"/>
-      <c r="B7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="6">
+      <c r="A7" s="9"/>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5">
         <f>SUM(C2:C6)</f>
         <v>1903</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <f>SUM(D2:D6)</f>
         <v>1905</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="7"/>
-      <c r="B8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="4">
+      <c r="A8" s="9"/>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3">
         <f>SUMPRODUCT(C2:C6,$B$2:$B$6)/SUM(C2:C6)</f>
         <v>4.5895953757225429</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <f>SUMPRODUCT(D2:D6,$B$2:$B$6)/SUM(D2:D6)</f>
         <v>4.5900262467191597</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:A8"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4111,245 +3957,244 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="16.75" customWidth="1"/>
-    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="1" max="1" width="16.75" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="2">
         <v>44750</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="2">
         <v>44751</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="2">
         <v>44752</v>
       </c>
-      <c r="F1" s="3">
+      <c r="F1" s="2">
         <v>44753</v>
       </c>
-      <c r="G1" s="3">
+      <c r="G1" s="2">
         <v>44754</v>
       </c>
-      <c r="H1" s="3">
+      <c r="H1" s="2">
         <v>44755</v>
       </c>
-      <c r="I1" s="3">
+      <c r="I1" s="2">
         <v>44756</v>
       </c>
-      <c r="J1" s="3">
+      <c r="J1" s="2">
         <v>44757</v>
       </c>
-      <c r="K1" s="3">
+      <c r="K1" s="2">
         <v>44758</v>
       </c>
-      <c r="L1" s="3">
+      <c r="L1" s="2">
         <v>44759</v>
       </c>
-      <c r="M1" s="3">
+      <c r="M1" s="2">
         <v>44760</v>
       </c>
-      <c r="N1" s="3">
+      <c r="N1" s="2">
         <v>44761</v>
       </c>
-      <c r="O1" s="3">
+      <c r="O1" s="2">
         <v>44762</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="7">
         <v>20</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="7">
         <v>20</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="7">
         <v>20</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="7"/>
-      <c r="B3" s="2">
+      <c r="A3" s="9"/>
+      <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="7">
         <v>20</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="7">
         <v>20</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="7">
         <v>20</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2">
+      <c r="A4" s="9"/>
+      <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="7">
         <v>125</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="7">
         <v>125</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="7">
         <v>125</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="7"/>
-      <c r="B5" s="2">
+      <c r="A5" s="9"/>
+      <c r="B5" s="1">
         <v>4</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="7">
         <v>373</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="7">
         <v>373</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="7">
         <v>373</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="7"/>
-      <c r="B6" s="2">
+      <c r="A6" s="9"/>
+      <c r="B6" s="1">
         <v>5</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="7">
         <v>2443</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="7">
         <v>2445</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="7">
         <v>2445</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="7"/>
-      <c r="B7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="6">
+      <c r="A7" s="9"/>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5">
         <f>SUM(C2:C6)</f>
         <v>2981</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <f>SUM(D2:D6)</f>
         <v>2983</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <f>SUM(E2:E6)</f>
         <v>2983</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="7"/>
-      <c r="B8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="4">
+      <c r="A8" s="9"/>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3">
         <f>SUMPRODUCT(C2:C6,$B$2:$B$6)/SUM(C2:C6)</f>
         <v>4.7440456222744043</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <f>SUMPRODUCT(D2:D6,$B$2:$B$6)/SUM(D2:D6)</f>
         <v>4.7442172309755284</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <f>SUMPRODUCT(E2:E6,$B$2:$B$6)/SUM(E2:E6)</f>
         <v>4.7442172309755284</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:A8"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4365,245 +4210,244 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="18.5" customWidth="1"/>
-    <col min="2" max="2" width="13.75" customWidth="1"/>
+    <col min="1" max="1" width="18.5" style="6" customWidth="1"/>
+    <col min="2" max="2" width="13.75" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="2">
         <v>44750</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="2">
         <v>44751</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="2">
         <v>44752</v>
       </c>
-      <c r="F1" s="3">
+      <c r="F1" s="2">
         <v>44753</v>
       </c>
-      <c r="G1" s="3">
+      <c r="G1" s="2">
         <v>44754</v>
       </c>
-      <c r="H1" s="3">
+      <c r="H1" s="2">
         <v>44755</v>
       </c>
-      <c r="I1" s="3">
+      <c r="I1" s="2">
         <v>44756</v>
       </c>
-      <c r="J1" s="3">
+      <c r="J1" s="2">
         <v>44757</v>
       </c>
-      <c r="K1" s="3">
+      <c r="K1" s="2">
         <v>44758</v>
       </c>
-      <c r="L1" s="3">
+      <c r="L1" s="2">
         <v>44759</v>
       </c>
-      <c r="M1" s="3">
+      <c r="M1" s="2">
         <v>44760</v>
       </c>
-      <c r="N1" s="3">
+      <c r="N1" s="2">
         <v>44761</v>
       </c>
-      <c r="O1" s="3">
+      <c r="O1" s="2">
         <v>44762</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="7">
         <v>183</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="7">
         <v>184</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="7">
         <v>184</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="7"/>
-      <c r="B3" s="2">
+      <c r="A3" s="9"/>
+      <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="7">
         <v>143</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="7">
         <v>143</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="7">
         <v>143</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2">
+      <c r="A4" s="9"/>
+      <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="7">
         <v>293</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="7">
         <v>294</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="7">
         <v>294</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="7"/>
-      <c r="B5" s="2">
+      <c r="A5" s="9"/>
+      <c r="B5" s="1">
         <v>4</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="7">
         <v>395</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="7">
         <v>396</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="7">
         <v>396</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="7"/>
-      <c r="B6" s="2">
+      <c r="A6" s="9"/>
+      <c r="B6" s="1">
         <v>5</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="7">
         <v>1999</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="7">
         <v>2005</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="7">
         <v>2005</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="7"/>
-      <c r="B7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="6">
+      <c r="A7" s="9"/>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5">
         <f>SUM(C2:C6)</f>
         <v>3013</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <f>SUM(D2:D6)</f>
         <v>3022</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <f>SUM(E2:E6)</f>
         <v>3022</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="7"/>
-      <c r="B8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="4">
+      <c r="A8" s="9"/>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3">
         <f>SUMPRODUCT(C2:C6,$B$2:$B$6)/SUM(C2:C6)</f>
         <v>4.2890806505144372</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <f>SUMPRODUCT(D2:D6,$B$2:$B$6)/SUM(D2:D6)</f>
         <v>4.2888815354070156</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <f>SUMPRODUCT(E2:E6,$B$2:$B$6)/SUM(E2:E6)</f>
         <v>4.2888815354070156</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:A8"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4619,261 +4463,260 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="14.75" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="1" max="1" width="14.75" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="2">
         <v>44750</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="2">
         <v>44751</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="2">
         <v>44752</v>
       </c>
-      <c r="F1" s="3">
+      <c r="F1" s="2">
         <v>44753</v>
       </c>
-      <c r="G1" s="3">
+      <c r="G1" s="2">
         <v>44754</v>
       </c>
-      <c r="H1" s="3">
+      <c r="H1" s="2">
         <v>44755</v>
       </c>
-      <c r="I1" s="3">
+      <c r="I1" s="2">
         <v>44756</v>
       </c>
-      <c r="J1" s="3">
+      <c r="J1" s="2">
         <v>44757</v>
       </c>
-      <c r="K1" s="3">
+      <c r="K1" s="2">
         <v>44758</v>
       </c>
-      <c r="L1" s="3">
+      <c r="L1" s="2">
         <v>44759</v>
       </c>
-      <c r="M1" s="3">
+      <c r="M1" s="2">
         <v>44760</v>
       </c>
-      <c r="N1" s="3">
+      <c r="N1" s="2">
         <v>44761</v>
       </c>
-      <c r="O1" s="3">
+      <c r="O1" s="2">
         <v>44762</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="7">
         <v>54</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="7">
         <v>54</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="7">
         <v>54</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="7">
         <v>54</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="7"/>
-      <c r="B3" s="2">
+      <c r="A3" s="9"/>
+      <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="7">
         <v>29</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="7">
         <v>29</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="7">
         <v>29</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="7">
         <v>29</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2">
+      <c r="A4" s="9"/>
+      <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="7">
         <v>79</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="7">
         <v>79</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="7">
         <v>79</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="7">
         <v>79</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="7"/>
-      <c r="B5" s="2">
+      <c r="A5" s="9"/>
+      <c r="B5" s="1">
         <v>4</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="7">
         <v>159</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="7">
         <v>160</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="7">
         <v>161</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="7">
         <v>161</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="7"/>
-      <c r="B6" s="2">
+      <c r="A6" s="9"/>
+      <c r="B6" s="1">
         <v>5</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="7">
         <v>561</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="7">
         <v>561</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="7">
         <v>561</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="7">
         <v>561</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="7"/>
-      <c r="B7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="6">
+      <c r="A7" s="9"/>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5">
         <f>SUM(C2:C6)</f>
         <v>882</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <f>SUM(D2:D6)</f>
         <v>883</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <f>SUM(E2:E6)</f>
         <v>884</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <f>SUM(F2:F6)</f>
         <v>884</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="7"/>
-      <c r="B8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="4">
+      <c r="A8" s="9"/>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3">
         <f>SUMPRODUCT(C2:C6,$B$2:$B$6)/SUM(C2:C6)</f>
         <v>4.2970521541950113</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <f>SUMPRODUCT(D2:D6,$B$2:$B$6)/SUM(D2:D6)</f>
         <v>4.2967157417893542</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <f>SUMPRODUCT(E2:E6,$B$2:$B$6)/SUM(E2:E6)</f>
         <v>4.2963800904977374</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <f>SUMPRODUCT(F2:F6,$B$2:$B$6)/SUM(F2:F6)</f>
         <v>4.2963800904977374</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:A8"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
